--- a/bank statement generator/bank_statements/statement_79.xlsx
+++ b/bank statement generator/bank_statements/statement_79.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 19.09.2023</t>
+          <t>KONTOSTAND AM 16.05.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,98 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>23.09.</t>
+          <t>18.05.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>24.09.</t>
+          <t>19.05.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./23.09 EDEKA RO</t>
+          <t>BURGER KING Lemgo</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>32,02-</t>
+          <t>24,24-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>27.09.</t>
+          <t>21.05.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>28.09.</t>
+          <t>22.05.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 22395235</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 48633916</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>84,32-</t>
+          <t>87,67-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>01.10.</t>
+          <t>23.05.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>02.10.</t>
+          <t>24.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU MWFZLV</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>86,19-</t>
+          <t>24,97-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>03.10.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>04.10.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>84,74-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>04.10.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>05.10.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>26,14-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>05.10.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>06.10.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>RECHNUNG VODAFONE GMBH 24542019</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>40,14-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.10.2023</t>
+          <t>KONTOSTAND AM 26.05.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>353,55-</t>
+          <t>136,88-</t>
         </is>
       </c>
     </row>
@@ -906,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.10.2023</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.06.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
